--- a/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击-新增活动按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点_文本存在</t>
   </si>
   <si>
@@ -105,9 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>busi-btns</t>
-  </si>
-  <si>
     <t>点击_className</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,131 +171,163 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>点击-活动时间开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+  </si>
+  <si>
+    <t>el-textarea__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传-调用autoit上传图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-每人限领数量输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-每人限领数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-提交按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[contains(text(),'提交')]</t>
+  </si>
+  <si>
+    <t>输入_classname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-radio__inner</t>
+  </si>
+  <si>
+    <t>点击-活动时间结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-优惠券新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-部分商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点_class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-选择商品窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_id包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有classname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第一个商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>点击-确定按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击-活动时间开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-券使用开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传图片</t>
-  </si>
-  <si>
-    <t>el-range-input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-使用开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-textarea__inner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传-调用autoit上传图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-每人限领数量输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-每人限领数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-提交按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[contains(text(),'提交')]</t>
-  </si>
-  <si>
-    <t>el-range-input</t>
-  </si>
-  <si>
-    <t>输入_classname时间</t>
-  </si>
-  <si>
-    <t>输入_classname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-radio__inner</t>
-  </si>
-  <si>
-    <t>点击-活动时间开始日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-活动时间结束日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-优惠券新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://101.132.157.87:8080/#/marketing/storeMarket/activityCoupon</t>
-  </si>
-  <si>
-    <t>检查点-促销活动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="content"]/ul/li[2]/span/input</t>
-  </si>
-  <si>
-    <t>点击-部分商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-选择商品窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-确定按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_className</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-折扣输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-折扣参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-dialog__body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\Dayu\moyusi\Keywords\Web\优惠券上传图片.exe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_className</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传图片按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-不参加联盟活动按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-使用时间开始日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-使用时间结束日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='部分商品']</t>
+  </si>
+  <si>
+    <t>el-dialog__body</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>com-item</t>
-  </si>
-  <si>
-    <t>if_id包含</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果有classname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第一个商品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,19 +335,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击-确定按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>if结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_className</t>
+    <t>//*[text()='不参加']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="el-row"]/div[12]/div[2]/div[1]/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>//*[@class="el-row"]/div[12]/div[2]/div[1]/div[2]/input[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="el-row"]/div[13]/div[1]/div[1]/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>输入_xpath推后1个月时间</t>
+  </si>
+  <si>
+    <t>//*[@class="el-row"]/div[13]/div[1]/div[1]/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>//*[@class='btns']/button[2]/span</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='btns']/button[1]/span</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-取消按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-icon-plus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -330,43 +375,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击-折扣输入框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-input__inner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-折扣参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-dialog__body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="el-button el-button--primary"]/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\优惠券上传图片.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击_className</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-plus</t>
-  </si>
-  <si>
-    <t>点击上传图片按钮</t>
+    <t>else</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_id不包含</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>//span[contains(text(),'</t>
+      <t>//a[text()='</t>
     </r>
     <r>
       <rPr>
@@ -376,7 +394,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>确定</t>
+      <t>优惠券</t>
     </r>
     <r>
       <rPr>
@@ -385,12 +403,55 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>')]</t>
+      <t>']</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/html/body/div[3]/div[2]/button[2]/span</t>
+    <t>点击-优惠券按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//*[text()='+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-新增活动按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_xpath当天</t>
+  </si>
+  <si>
+    <t>回车</t>
+  </si>
+  <si>
+    <t>操作键盘-回车</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -518,6 +579,7 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -798,9 +860,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -867,7 +929,7 @@
       </c>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -884,21 +946,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B6" s="11">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="10" t="s">
@@ -907,326 +970,292 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
+      <c r="A14" t="s">
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="A16" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>43388</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
+      <c r="A19" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17">
-        <v>43403</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B23" s="11">
         <v>2000</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="17">
-        <v>43388</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" s="17">
-        <v>43403</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B27" s="11">
         <v>2000</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="10" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1244,160 +1273,161 @@
     </row>
     <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B32" s="11"/>
       <c r="D32" s="12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+    <row r="34" spans="1:6" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="D35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B38" s="11">
         <v>2000</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="11">
-        <v>5000</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="D41" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1415,88 +1445,219 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D44">
-        <v>999</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="D46" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="11">
+      <c r="B46" s="11">
         <v>5000</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="10" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="D48" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" t="s">
-        <v>63</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>999</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="D57" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="6"/>
+      <c r="E59" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
@@ -296,10 +296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\优惠券上传图片.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击_className</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -453,6 +449,9 @@
   <si>
     <t>操作键盘-回车</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\优惠券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -862,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,16 +948,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="11">
         <v>2000</v>
@@ -974,10 +973,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1149,18 +1148,18 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="5" t="s">
@@ -1169,10 +1168,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="5" t="s">
@@ -1181,11 +1180,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1203,35 +1202,35 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
         <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1252,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>54</v>
@@ -1276,7 +1275,7 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
         <v>56</v>
@@ -1305,7 +1304,7 @@
       </c>
       <c r="B32" s="11"/>
       <c r="D32" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>61</v>
@@ -1317,7 +1316,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
@@ -1333,7 +1332,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="16" t="s">
@@ -1343,14 +1342,14 @@
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="23"/>
       <c r="D35" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="13"/>
     </row>
@@ -1359,11 +1358,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="21"/>
     </row>
@@ -1418,16 +1417,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1449,7 +1448,7 @@
       </c>
       <c r="B43" s="9"/>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>43</v>
@@ -1473,13 +1472,13 @@
         <v>30</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1501,7 +1500,7 @@
       </c>
       <c r="B47" s="9"/>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>43</v>
@@ -1512,13 +1511,13 @@
         <v>30</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1540,7 +1539,7 @@
       </c>
       <c r="B50" s="9"/>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>43</v>
@@ -1551,13 +1550,13 @@
         <v>30</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1579,7 +1578,7 @@
       </c>
       <c r="B53" s="9"/>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>43</v>
@@ -1590,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54">
         <v>8</v>

--- a/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
@@ -451,7 +451,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\优惠券上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\优惠券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
@@ -451,7 +451,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\优惠券上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\优惠券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
+++ b/moyusi/Keywords/Web/优惠券-新增进行中的活动.xlsx
@@ -451,7 +451,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\优惠券上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\优惠券上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
